--- a/src/main/resources/sample.xlsx
+++ b/src/main/resources/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\Java\Jira\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEB1438-8E5D-4CB2-B34F-D14B2FDC3939}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135F5F17-F996-4098-8D2B-E5E73E7D0B7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8340" yWindow="3960" windowWidth="9660" windowHeight="7095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Epic</t>
   </si>
@@ -88,6 +88,21 @@
   </si>
   <si>
     <t>New Design</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Herald</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Benedict</t>
   </si>
 </sst>
 </file>
@@ -414,7 +429,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,6 +462,9 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
       <c r="H1" t="s">
         <v>6</v>
       </c>
@@ -470,6 +488,9 @@
       <c r="F2" t="s">
         <v>8</v>
       </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
       <c r="H2">
         <v>3</v>
       </c>
@@ -491,7 +512,10 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -514,7 +538,10 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
       </c>
       <c r="H4">
         <v>8</v>
@@ -537,7 +564,10 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
       </c>
       <c r="H5">
         <v>13</v>
